--- a/Documents/기획/아트용문서/케릭터애니메이션.xlsx
+++ b/Documents/기획/아트용문서/케릭터애니메이션.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="경비원" sheetId="1" r:id="rId1"/>
+    <sheet name="형사" sheetId="2" r:id="rId1"/>
+    <sheet name="경비원" sheetId="1" r:id="rId2"/>
+    <sheet name="소녀" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>suspicious</t>
   </si>
@@ -43,18 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>느낌표(플레이어를 발견했을 때)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선을 낙서하듯 마구 그린 그림(플레이어를 놓쳤을 때, isdetected가 true에서 false로 가는 상황)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>detect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아직 미정…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>겁에 질려 양팔을 들고 소리를 지르며 도망간다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,15 +85,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>팔을 흔들며 걷는다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무릎을 살짝 굽히고 주의를 경계하며 천천히 걷는다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siren이 빙글 빙글 돈다(alert 상태일 때 주의의 적들에게 알리는 상황)</t>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1루틴소요시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔을 흔들며 걷는다, 몸이 위 아래로 살짝씩 들썩인다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무릎을 살짝 굽히고 고개를 좌우로 돌려 주의를 경계하며 천천히 걷는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조준하는 방향이 플레이어 방향이어야 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,106 +479,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="90.5" customWidth="1"/>
-    <col min="3" max="3" width="80.875" customWidth="1"/>
+    <col min="2" max="2" width="64.5" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="50.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -567,4 +625,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>